--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -345,10 +345,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -358,16 +358,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -381,14 +381,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +732,10 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="2">
       <c r="A2" s="9" t="str">
@@ -750,27 +750,27 @@
       <c r="D2" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="str">
         <v>Game</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="15" t="str">
         <v>Show</v>
       </c>
       <c r="C3" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="9" t="str">
         <v>战斗语音</v>
       </c>
@@ -783,39 +783,40 @@
       <c r="E4" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="10"/>
       <c r="B5" s="14" t="str">
         <v>Battle</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="13" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
       <c r="D5" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="str">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="str">
         <v>大世界探索语音</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -826,13 +827,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="13" t="str">
+      <c r="A7" s="10"/>
+      <c r="B7" s="15" t="str">
         <v>Explore</v>
       </c>
       <c r="C7" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
@@ -841,7 +843,7 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
@@ -872,10 +874,10 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
@@ -886,29 +888,29 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="3">
       <c r="A3" s="10" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="B3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="9" t="str">
@@ -917,31 +919,31 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
       <c r="A5" s="10" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="B5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>奖励系统</v>
       </c>
     </row>
@@ -949,24 +951,24 @@
       <c r="A7" s="10" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="7" t="str">
+      <c r="B7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>坐骑/载具</v>
       </c>
     </row>
@@ -977,16 +979,16 @@
       <c r="B9" s="10" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="C9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1020,30 +1022,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1077,30 +1079,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1128,30 +1130,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>颜色</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>含义</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>py中的变量值名</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>规则</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>FFD9F3FD</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>若填充色为浅天蓝色，需要创建Audio下的Unit和Actor-Mixer</v>
       </c>
       <c r="C2" t="str">
         <v>first_column_data[1]</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>浅天蓝色sheet为正则表达式（包括GenTable也在正则中调）
 进正则默认为False，匹配成功才返回True</v>
       </c>
@@ -1160,10 +1162,10 @@
       <c r="A3" s="3" t="str">
         <v>FF8F959E</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>first_column_data[2]</v>
       </c>
     </row>
@@ -1171,10 +1173,10 @@
       <c r="A4" s="4" t="str">
         <v>FFD9F5D6</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>若填充色为浅绿色，创建Audio下的Actor-Mixer</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>first_column_data[3]</v>
       </c>
     </row>
@@ -1198,84 +1200,84 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="67" r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>材质类型</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>肉身</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>金属</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>水</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>木头</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>土地</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>通用</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>石板</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B3" s="6" t="str">
+      <c r="A3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B3" s="5" t="str">
         <v>Flesh</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="5" t="str">
         <v>Metal</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="6" t="str">
         <v>Water</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="6" t="str">
         <v>Wood</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="5" t="str">
         <v>Dirt</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="5" t="str">
         <v>Gen</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="6" t="str">
         <v>Rock</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="6" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <v>Lit</v>
       </c>
       <c r="B5" t="str">
@@ -1286,18 +1288,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="6" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="6" t="str">
         <v>Mid</v>
       </c>
       <c r="B7" t="str">
@@ -1308,21 +1310,21 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="6" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D8" s="2" t="str">
+      <c r="B8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="6" t="str">
         <v>Hvy</v>
       </c>
       <c r="B9" t="str">
@@ -1336,220 +1338,220 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="6" t="str">
         <v>（技能）特殊暴击/命中效果</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="6" t="str">
         <v>Cri</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="6" t="str">
         <v>（技能）进入某状态(武器、变身相关)</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="13">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="6" t="str">
         <v>Enter</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="14">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="6" t="str">
         <v>（技能）退出某状态(武器、变身相关）</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="15">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="6" t="str">
         <v>Exit</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="16">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="6" t="str">
         <v>（技能）开始</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="5" t="str">
         <v>Start</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="6" t="str">
         <v>（技能）结束</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="6" t="str">
         <v>End</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="6" t="str">
         <v>（技能）前摇</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="21">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="5" t="str">
         <v>Pre</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="22">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="6" t="str">
         <v>（技能）正面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="23">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="6" t="str">
         <v>F</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="5" t="str">
         <v>（技能）后面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="25">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="6" t="str">
         <v>B</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="6" t="str">
         <v>（技能）下面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="27">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="5" t="str">
         <v>D</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="28">
-      <c r="A28" s="5" t="str">
+      <c r="A28" s="6" t="str">
         <v>（技能）左面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="5" t="str">
         <v>L</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="30">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="6" t="str">
         <v>（技能）右面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="5" t="str">
         <v>R</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="5" t="str">
         <v>（技能）特殊状态</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="5" t="str">
         <v>Sp</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="34">
-      <c r="A34" s="5" t="str">
+      <c r="A34" s="6" t="str">
         <v>（技能）第二阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="5" t="str">
         <v>2nd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="36">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="5" t="str">
         <v>（技能）第三阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="37">
-      <c r="A37" s="5" t="str">
+      <c r="A37" s="6" t="str">
         <v>3rd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="38">
-      <c r="A38" s="5" t="str">
+      <c r="A38" s="6" t="str">
         <v>（技能）第四阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="39">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="5" t="str">
         <v>4th</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="40">
-      <c r="A40" s="5" t="str">
+      <c r="A40" s="6" t="str">
         <v>（技能）第五阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="41">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="5" t="str">
         <v>5th</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="6" t="str">
         <v>非常远（表距离）</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="str">
+      <c r="A43" s="6" t="str">
         <v>VeryFar</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="str">
+      <c r="A44" s="6" t="str">
         <v>远（表距离）</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="5" t="str">
         <v>Far</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="6" t="str">
         <v>Distant</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="str">
+      <c r="A46" s="6" t="str">
         <v>中（表距离）</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="6" t="str">
         <v>Med</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="6" t="str">
         <v>Medium</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="str">
+      <c r="A48" s="6" t="str">
         <v>近（表距离）</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C48" s="2" t="str">
+      <c r="B48" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C48" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="str">
+      <c r="A49" s="6" t="str">
         <v>Cls</v>
       </c>
       <c r="B49" t="str">
@@ -1560,80 +1562,80 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="str">
+      <c r="A50" s="6" t="str">
         <v>非常近（表距离）</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="5" t="str">
         <v>VeryCls</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B51" s="6" t="str">
         <v>VeryClose</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="str">
+      <c r="A52" s="6" t="str">
         <v>白天</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="str">
+      <c r="A53" s="6" t="str">
         <v>Day</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="str">
+      <c r="A54" s="6" t="str">
         <v>黑夜</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="str">
+      <c r="A55" s="6" t="str">
         <v>Night</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="str">
+      <c r="A56" s="6" t="str">
         <v>地面</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="str">
+      <c r="A57" s="6" t="str">
         <v>Grd</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B57" s="6" t="str">
         <v>Ground</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="str">
+      <c r="A58" s="6" t="str">
         <v>下落</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="5" t="str">
         <v>Fall</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="str">
+      <c r="A60" s="6" t="str">
         <v>死亡</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C60" s="2" t="str">
+      <c r="B60" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C60" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="str">
+      <c r="A61" s="6" t="str">
         <v>Death</v>
       </c>
       <c r="B61" t="str">
@@ -1644,24 +1646,24 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="str">
+      <c r="A62" s="6" t="str">
         <v>判定失败</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D62" s="2" t="str">
+      <c r="B62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D62" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="str">
+      <c r="A63" s="6" t="str">
         <v>Fail</v>
       </c>
-      <c r="B63" s="8" t="b">
+      <c r="B63" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="str">
@@ -1672,18 +1674,18 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="str">
+      <c r="A64" s="6" t="str">
         <v>判定成功</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C64" s="2" t="str">
+      <c r="B64" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C64" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="str">
+      <c r="A65" s="5" t="str">
         <v>Sucs</v>
       </c>
       <c r="B65" t="str">
@@ -1694,60 +1696,60 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="str">
+      <c r="A66" s="5" t="str">
         <v>默认</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="str">
+      <c r="A67" s="6" t="str">
         <v>Def</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B67" s="6" t="str">
         <v>Default</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="str">
+      <c r="A68" s="6" t="str">
         <v>互动</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="str">
+      <c r="A69" s="6" t="str">
         <v>Intv</v>
       </c>
-      <c r="B69" s="5" t="str">
+      <c r="B69" s="6" t="str">
         <v>Interactive</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="str">
+      <c r="A70" s="6" t="str">
         <v>多次（例如射击）</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="str">
+      <c r="A71" s="6" t="str">
         <v>Multi</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="str">
+      <c r="A72" s="6" t="str">
         <v>通用</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C72" s="2" t="str">
+      <c r="B72" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C72" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="str">
+      <c r="A73" s="5" t="str">
         <v>Gen</v>
       </c>
       <c r="B73" t="str">
@@ -1758,60 +1760,60 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="str">
+      <c r="A74" s="1" t="str">
         <v>爆炸</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="E74" s="2" t="str">
+      <c r="B74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="E74" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="1" t="str">
         <v>Explo</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="1" t="str">
         <v>Explode</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="1" t="str">
         <v>Blast</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="1" t="str">
         <v>Bomb</v>
       </c>
-      <c r="E75" s="2" t="str">
+      <c r="E75" s="1" t="str">
         <v>Explosion</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="str">
+      <c r="A76" s="1" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="1" t="str">
         <v>LP</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="1" t="str">
         <v>Lp</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="1" t="str">
         <v>loop</v>
       </c>
     </row>
@@ -1851,30 +1853,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>环境区域编号</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -1885,16 +1887,16 @@
       <c r="B3" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1902,35 +1904,35 @@
       <c r="A4" s="9" t="str">
         <v>通用环境声</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -1939,16 +1941,16 @@
       <c r="B5" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1956,35 +1958,35 @@
       <c r="A6" s="9" t="str">
         <v>全局环境声</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="str">
@@ -1993,16 +1995,16 @@
       <c r="B7" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2036,30 +2038,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="A2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2099,75 +2101,75 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色技能</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>模块类型或名称</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>Skill</v>
       </c>
       <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>((\bExpose\b)|(^Atk\\d+$)|(\bAtk\b)|(\bHook\b)|(\bSkyAtk\b)|(\bBattle\b)|(\bDodge\b)|(\bCounter\b)|(^Execu\\d+$)|(\bExecu\b)|(\bFocus\b)|(^Focus\\d+$)|(\bGen\b)|(\bHit\b)|(\bDeath\b)|(\bStrafe\b)|(\bUlt\b))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>角色衣服摩擦</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>摩擦类型</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>Foley</v>
       </c>
       <c r="B5" s="10" t="str">
@@ -2176,38 +2178,38 @@
       <c r="C5" s="10" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="D5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>角色运动</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>鞋型</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>动作类型</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>Mov</v>
       </c>
       <c r="B7" s="10" t="str">
@@ -2219,50 +2221,50 @@
       <c r="D7" s="10" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="E7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>其他</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>行为</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>Other</v>
       </c>
       <c r="B9" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2300,24 +2302,24 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>打击</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>力度</v>
       </c>
     </row>
@@ -2328,40 +2330,40 @@
       <c r="B3" s="10" t="str">
         <v>Steel</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>刺击</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -2370,40 +2372,40 @@
       <c r="B5" s="10" t="str">
         <v>Steel</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冲击</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="str">
@@ -2412,40 +2414,40 @@
       <c r="B7" s="10" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="8" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="str">
@@ -2454,40 +2456,40 @@
       <c r="B9" s="10" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="8" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="8" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="str">
@@ -2496,42 +2498,42 @@
       <c r="B11" s="10" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D11" s="2" t="str">
+      <c r="C11" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="8" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="8" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="8" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="str">
@@ -2543,10 +2545,10 @@
       <c r="C13" s="10" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E13" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2555,21 +2557,21 @@
       <c r="B14" s="10" t="str">
         <v>Heal</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E14" s="2" t="str">
+      <c r="C14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E14" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>玩家受击</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>受击材质</v>
       </c>
     </row>
@@ -2618,30 +2620,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>小怪</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>小怪模块</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>小怪编号</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2649,19 +2651,19 @@
       <c r="A3" s="10" t="str">
         <v>Mob</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
       <c r="C3" s="10" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2673,33 +2675,33 @@
       <c r="C4" s="10" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="D4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>Boss怪</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Boss模块</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Boss编号</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2707,19 +2709,19 @@
       <c r="A6" s="10" t="str">
         <v>Boss</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
       <c r="C6" s="10" t="str">
         <v>B\\d{2,4}</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="D6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2759,30 +2761,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色展示模块</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>皮肤类型（Def为默认）</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>动作</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2793,30 +2795,30 @@
       <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Def</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>Enter</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>^Pose\\d+$</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>用户界面</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>通用UI</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -2825,7 +2827,7 @@
       <c r="B5" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2834,42 +2836,42 @@
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="str">
         <v>Activity</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>世界交互UI</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="str">
         <v>Interact</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="10">
       <c r="A10" s="10"/>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>菜单</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="str">
         <v>Menu</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -358,10 +358,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -369,10 +369,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0">
@@ -381,14 +381,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,16 +720,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -738,29 +738,29 @@
       <c r="F1" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="10" t="str">
         <v>游戏语音</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="10" t="str">
         <v>角色展示界面语音</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="10" t="str">
         <v>数字编号</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Game</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="13" t="str">
         <v>Show</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -770,17 +770,17 @@
       <c r="F3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="str">
         <v>战斗语音</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="10" t="str">
         <v>战斗语音类型</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="10" t="str">
         <v>数字编号</v>
       </c>
       <c r="F4" s="8"/>
@@ -800,14 +800,14 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="14" t="str">
         <v>Battle</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="15" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -815,23 +815,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="str">
         <v>大世界探索语音</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="10" t="str">
         <v>数字编号</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="15" t="str">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="str">
         <v>Explore</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -862,16 +862,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -882,17 +882,17 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="10" t="str">
         <v>探索通用交互物</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Explore</v>
       </c>
       <c r="B3" s="8" t="str">
@@ -913,17 +913,17 @@
       <c r="G3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="10" t="str">
         <v>特殊交互物</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Func</v>
       </c>
       <c r="B5" s="8" t="str">
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Reward</v>
       </c>
       <c r="B7" s="8" t="str">
@@ -973,10 +973,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <v>Vehicle</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>Horse</v>
       </c>
       <c r="C9" s="8" t="str">
@@ -1010,16 +1010,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1067,16 +1067,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1243,30 +1243,30 @@
       <c r="A3" s="1" t="str">
         <v>.*</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <v>Flesh</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="6" t="str">
         <v>Metal</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="5" t="str">
         <v>Water</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="5" t="str">
         <v>Wood</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="6" t="str">
         <v>Dirt</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="6" t="str">
         <v>Gen</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="5" t="str">
         <v>Rock</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="5" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Lit</v>
       </c>
       <c r="B5" t="str">
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1299,7 +1299,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>Mid</v>
       </c>
       <c r="B7" t="str">
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>Hvy</v>
       </c>
       <c r="B9" t="str">
@@ -1338,177 +1338,177 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>（技能）特殊暴击/命中效果</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>Cri</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>（技能）进入某状态(武器、变身相关)</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="13">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>Enter</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="14">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="5" t="str">
         <v>（技能）退出某状态(武器、变身相关）</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="15">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="5" t="str">
         <v>Exit</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="16">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="5" t="str">
         <v>（技能）开始</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="6" t="str">
         <v>Start</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="6" t="str">
+      <c r="A18" s="5" t="str">
         <v>（技能）结束</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="6" t="str">
+      <c r="A19" s="5" t="str">
         <v>End</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="6" t="str">
+      <c r="A20" s="5" t="str">
         <v>（技能）前摇</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="21">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="6" t="str">
         <v>Pre</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="22">
-      <c r="A22" s="6" t="str">
+      <c r="A22" s="5" t="str">
         <v>（技能）正面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="23">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="5" t="str">
         <v>F</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="6" t="str">
         <v>（技能）后面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="25">
-      <c r="A25" s="6" t="str">
+      <c r="A25" s="5" t="str">
         <v>B</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="5" t="str">
         <v>（技能）下面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="27">
-      <c r="A27" s="5" t="str">
+      <c r="A27" s="6" t="str">
         <v>D</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="28">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="5" t="str">
         <v>（技能）左面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="5" t="str">
+      <c r="A29" s="6" t="str">
         <v>L</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="30">
-      <c r="A30" s="6" t="str">
+      <c r="A30" s="5" t="str">
         <v>（技能）右面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="5" t="str">
+      <c r="A31" s="6" t="str">
         <v>R</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="5" t="str">
+      <c r="A32" s="6" t="str">
         <v>（技能）特殊状态</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="5" t="str">
+      <c r="A33" s="6" t="str">
         <v>Sp</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="34">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="5" t="str">
         <v>（技能）第二阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="5" t="str">
+      <c r="A35" s="6" t="str">
         <v>2nd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="36">
-      <c r="A36" s="5" t="str">
+      <c r="A36" s="6" t="str">
         <v>（技能）第三阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="37">
-      <c r="A37" s="6" t="str">
+      <c r="A37" s="5" t="str">
         <v>3rd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="38">
-      <c r="A38" s="6" t="str">
+      <c r="A38" s="5" t="str">
         <v>（技能）第四阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="39">
-      <c r="A39" s="5" t="str">
+      <c r="A39" s="6" t="str">
         <v>4th</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="40">
-      <c r="A40" s="6" t="str">
+      <c r="A40" s="5" t="str">
         <v>（技能）第五阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="41">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="6" t="str">
         <v>5th</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="str">
+      <c r="A42" s="5" t="str">
         <v>非常远（表距离）</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="5" t="str">
         <v>VeryFar</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="5" t="str">
         <v>远（表距离）</v>
       </c>
       <c r="B44" s="1" t="str">
@@ -1516,15 +1516,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="str">
+      <c r="A45" s="6" t="str">
         <v>Far</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="5" t="str">
         <v>Distant</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="str">
+      <c r="A46" s="5" t="str">
         <v>中（表距离）</v>
       </c>
       <c r="B46" s="1" t="str">
@@ -1532,15 +1532,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="str">
+      <c r="A47" s="5" t="str">
         <v>Med</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" s="5" t="str">
         <v>Medium</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="str">
+      <c r="A48" s="5" t="str">
         <v>近（表距离）</v>
       </c>
       <c r="B48" s="1" t="str">
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="str">
+      <c r="A49" s="5" t="str">
         <v>Cls</v>
       </c>
       <c r="B49" t="str">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="str">
+      <c r="A50" s="5" t="str">
         <v>非常近（表距离）</v>
       </c>
       <c r="B50" s="1" t="str">
@@ -1570,35 +1570,35 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="str">
+      <c r="A51" s="6" t="str">
         <v>VeryCls</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" s="5" t="str">
         <v>VeryClose</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="str">
+      <c r="A52" s="5" t="str">
         <v>白天</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="str">
+      <c r="A53" s="5" t="str">
         <v>Day</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="str">
+      <c r="A54" s="5" t="str">
         <v>黑夜</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="str">
+      <c r="A55" s="5" t="str">
         <v>Night</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="str">
+      <c r="A56" s="5" t="str">
         <v>地面</v>
       </c>
       <c r="B56" s="1" t="str">
@@ -1606,25 +1606,25 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="str">
+      <c r="A57" s="5" t="str">
         <v>Grd</v>
       </c>
-      <c r="B57" s="6" t="str">
+      <c r="B57" s="5" t="str">
         <v>Ground</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="str">
+      <c r="A58" s="5" t="str">
         <v>下落</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="str">
+      <c r="A59" s="6" t="str">
         <v>Fall</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="str">
+      <c r="A60" s="5" t="str">
         <v>死亡</v>
       </c>
       <c r="B60" s="1" t="str">
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="str">
+      <c r="A61" s="5" t="str">
         <v>Death</v>
       </c>
       <c r="B61" t="str">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="str">
+      <c r="A62" s="5" t="str">
         <v>判定失败</v>
       </c>
       <c r="B62" s="1" t="str">
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="str">
+      <c r="A63" s="5" t="str">
         <v>Fail</v>
       </c>
       <c r="B63" s="7" t="b">
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="str">
+      <c r="A64" s="5" t="str">
         <v>判定成功</v>
       </c>
       <c r="B64" s="1" t="str">
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="str">
+      <c r="A65" s="6" t="str">
         <v>Sucs</v>
       </c>
       <c r="B65" t="str">
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="str">
+      <c r="A66" s="6" t="str">
         <v>默认</v>
       </c>
       <c r="B66" s="1" t="str">
@@ -1704,15 +1704,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="str">
+      <c r="A67" s="5" t="str">
         <v>Def</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" s="5" t="str">
         <v>Default</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="str">
+      <c r="A68" s="5" t="str">
         <v>互动</v>
       </c>
       <c r="B68" s="1" t="str">
@@ -1720,25 +1720,25 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="str">
+      <c r="A69" s="5" t="str">
         <v>Intv</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="5" t="str">
         <v>Interactive</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="str">
+      <c r="A70" s="5" t="str">
         <v>多次（例如射击）</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="str">
+      <c r="A71" s="5" t="str">
         <v>Multi</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="str">
+      <c r="A72" s="5" t="str">
         <v>通用</v>
       </c>
       <c r="B72" s="1" t="str">
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="str">
+      <c r="A73" s="6" t="str">
         <v>Gen</v>
       </c>
       <c r="B73" t="str">
@@ -1841,16 +1841,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1881,10 +1881,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>A\\d{2,4}</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="10" t="str">
         <v>通用环境声</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -1935,10 +1935,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -1955,7 +1955,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="10" t="str">
         <v>全局环境声</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1989,10 +1989,10 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Global</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -2026,16 +2026,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2089,16 +2089,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2132,7 +2132,7 @@
       <c r="A3" s="2" t="str">
         <v>Skill</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2172,10 +2172,10 @@
       <c r="A5" s="2" t="str">
         <v>Foley</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="9" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -2212,13 +2212,13 @@
       <c r="A7" s="2" t="str">
         <v>Mov</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <v>((\bHHeels\b)|(\bLeather\b)|(\bBoots\b))</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
       <c r="E7" s="1" t="str">
@@ -2252,7 +2252,7 @@
       <c r="A9" s="2" t="str">
         <v>Other</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>Gen</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -2290,16 +2290,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2324,10 +2324,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Cut</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>Steel</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2366,10 +2366,10 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Stab</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>Steel</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2408,10 +2408,10 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Punch</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -2450,10 +2450,10 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <v>Firearm</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -2492,10 +2492,10 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="9" t="str">
         <v>Block</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="9" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -2536,13 +2536,13 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="str">
+      <c r="A13" s="9" t="str">
         <v>Element</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="9" t="str">
         <v>((\bFire\b)|(\bIce\b)|(\bAcid\b))</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="9" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -2553,8 +2553,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="str">
         <v>Heal</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -2576,10 +2576,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="9" t="str">
         <v>1P</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="9" t="str">
         <v>((\bCloth\b)|(\bArmour\b)|(\bLeather\b))</v>
       </c>
     </row>
@@ -2608,16 +2608,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2648,13 +2648,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Mob</v>
       </c>
       <c r="B3" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="9" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -2668,11 +2668,11 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11" t="str">
         <v>Mov</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="9" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
       <c r="D4" s="1" t="str">
@@ -2706,13 +2706,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="9" t="str">
         <v>Boss</v>
       </c>
       <c r="B6" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="9" t="str">
         <v>B\\d{2,4}</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -2749,16 +2749,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2789,10 +2789,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Show</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2821,10 +2821,10 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>UI</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>Gen</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2832,43 +2832,43 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="str">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="str">
         <v>Activity</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="str">
         <v>世界交互UI</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="str">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="str">
         <v>Interact</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="str">
         <v>菜单</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="str">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="str">
         <v>Menu</v>
       </c>
       <c r="C11" s="1"/>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -363,16 +363,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0">
@@ -720,16 +720,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -738,52 +738,52 @@
       <c r="F1" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="9" t="str">
         <v>游戏语音</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="9" t="str">
         <v>角色展示界面语音</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="9" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="9" t="str">
         <v>数字编号</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>Game</v>
       </c>
       <c r="B3" s="13" t="str">
         <v>Show</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="str">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9" t="str">
         <v>战斗语音</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="9" t="str">
         <v>战斗语音类型</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="9" t="str">
         <v>角色编号</v>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -800,14 +800,14 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="14" t="str">
         <v>Battle</v>
       </c>
       <c r="C5" s="15" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -815,23 +815,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="str">
         <v>大世界探索语音</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="9" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="9" t="str">
         <v>数字编号</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="13" t="str">
         <v>Explore</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -862,16 +862,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -882,63 +882,63 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="9" t="str">
         <v>探索通用交互物</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="B3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <v>特殊交互物</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="10" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="B5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -948,22 +948,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="10" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="8" t="str">
+      <c r="B7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -973,22 +973,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="10" t="str">
         <v>Vehicle</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="10" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="8" t="str">
+      <c r="C9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1010,16 +1010,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1030,22 +1030,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="8" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1067,16 +1067,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1087,22 +1087,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="8" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       <c r="A63" s="5" t="str">
         <v>Fail</v>
       </c>
-      <c r="B63" s="7" t="b">
+      <c r="B63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="str">
@@ -1797,14 +1797,14 @@
       <c r="A76" s="1" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="8" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="8" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="B76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
@@ -1841,16 +1841,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -1881,10 +1881,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>A\\d{2,4}</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <v>通用环境声</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -1935,10 +1935,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -1955,7 +1955,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="9" t="str">
         <v>全局环境声</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1989,10 +1989,10 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="10" t="str">
         <v>Global</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -2026,16 +2026,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2089,16 +2089,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2132,7 +2132,7 @@
       <c r="A3" s="2" t="str">
         <v>Skill</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2172,10 +2172,10 @@
       <c r="A5" s="2" t="str">
         <v>Foley</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="10" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -2212,13 +2212,13 @@
       <c r="A7" s="2" t="str">
         <v>Mov</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="10" t="str">
         <v>((\bHHeels\b)|(\bLeather\b)|(\bBoots\b))</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="10" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
       <c r="E7" s="1" t="str">
@@ -2252,7 +2252,7 @@
       <c r="A9" s="2" t="str">
         <v>Other</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="10" t="str">
         <v>Gen</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -2290,16 +2290,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2324,10 +2324,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>Cut</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="10" t="str">
         <v>Steel</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2366,10 +2366,10 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="10" t="str">
         <v>Stab</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="10" t="str">
         <v>Steel</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2408,10 +2408,10 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="10" t="str">
         <v>Punch</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="10" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -2422,16 +2422,16 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="7" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="7" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="7" t="str">
         <v>力度</v>
       </c>
       <c r="E8" s="1"/>
@@ -2450,10 +2450,10 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="10" t="str">
         <v>Firearm</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="10" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -2464,16 +2464,16 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="7" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="7" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="7" t="str">
         <v>力度</v>
       </c>
       <c r="E10" s="1"/>
@@ -2492,10 +2492,10 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="10" t="str">
         <v>Block</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="10" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -2506,19 +2506,19 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="7" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="7" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <v>力度</v>
       </c>
       <c r="F12" s="1"/>
@@ -2536,13 +2536,13 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="10" t="str">
         <v>Element</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="10" t="str">
         <v>((\bFire\b)|(\bIce\b)|(\bAcid\b))</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="10" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -2553,8 +2553,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="str">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="str">
         <v>Heal</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -2576,10 +2576,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="10" t="str">
         <v>1P</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B16" s="10" t="str">
         <v>((\bCloth\b)|(\bArmour\b)|(\bLeather\b))</v>
       </c>
     </row>
@@ -2608,16 +2608,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2648,13 +2648,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>Mob</v>
       </c>
       <c r="B3" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="10" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -2668,11 +2668,11 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="11" t="str">
         <v>Mov</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="10" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
       <c r="D4" s="1" t="str">
@@ -2706,13 +2706,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="10" t="str">
         <v>Boss</v>
       </c>
       <c r="B6" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="10" t="str">
         <v>B\\d{2,4}</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -2749,16 +2749,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
       <c r="E1" s="1" t="str">
@@ -2789,10 +2789,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="10" t="str">
         <v>Show</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -2818,13 +2818,13 @@
       <c r="C4" s="1" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="10" t="str">
         <v>UI</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="10" t="str">
         <v>Gen</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2832,43 +2832,43 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="str">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="str">
         <v>Activity</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="str">
         <v>世界交互UI</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="str">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="str">
         <v>Interact</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="str">
         <v>菜单</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="str">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="str">
         <v>Menu</v>
       </c>
       <c r="C11" s="1"/>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -361,10 +361,10 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -766,8 +766,8 @@
       <c r="D3" s="1" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="10"/>
@@ -783,7 +783,7 @@
       <c r="E4" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -895,22 +895,22 @@
       <c r="A3" s="10" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="B3" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="9" t="str">
@@ -926,19 +926,19 @@
       <c r="A5" s="10" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="B5" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="6" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -951,19 +951,19 @@
       <c r="A7" s="10" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="7" t="str">
+      <c r="B7" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="6" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -979,16 +979,16 @@
       <c r="B9" s="10" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="C9" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="6" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1030,22 +1030,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="6" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1087,22 +1087,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="6" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1243,10 +1243,10 @@
       <c r="A3" s="1" t="str">
         <v>.*</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="7" t="str">
         <v>Flesh</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="7" t="str">
         <v>Metal</v>
       </c>
       <c r="D3" s="5" t="str">
@@ -1255,10 +1255,10 @@
       <c r="E3" s="5" t="str">
         <v>Wood</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="7" t="str">
         <v>Dirt</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="7" t="str">
         <v>Gen</v>
       </c>
       <c r="H3" s="5" t="str">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="7" t="str">
         <v>Start</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="21">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="7" t="str">
         <v>Pre</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="7" t="str">
         <v>（技能）后面</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="27">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="7" t="str">
         <v>D</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="7" t="str">
         <v>L</v>
       </c>
     </row>
@@ -1443,17 +1443,17 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="7" t="str">
         <v>R</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="7" t="str">
         <v>（技能）特殊状态</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="7" t="str">
         <v>Sp</v>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="7" t="str">
         <v>2nd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="36">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="7" t="str">
         <v>（技能）第三阶段</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="39">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="7" t="str">
         <v>4th</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="41">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="7" t="str">
         <v>5th</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="7" t="str">
         <v>Far</v>
       </c>
       <c r="B45" s="5" t="str">
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="7" t="str">
         <v>VeryCls</v>
       </c>
       <c r="B51" s="5" t="str">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="7" t="str">
         <v>Fall</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="str">
+      <c r="A65" s="7" t="str">
         <v>Sucs</v>
       </c>
       <c r="B65" t="str">
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="str">
+      <c r="A66" s="7" t="str">
         <v>默认</v>
       </c>
       <c r="B66" s="1" t="str">
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="str">
+      <c r="A73" s="7" t="str">
         <v>Gen</v>
       </c>
       <c r="B73" t="str">
@@ -1797,14 +1797,14 @@
       <c r="A76" s="1" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="6" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
@@ -2422,16 +2422,16 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="6" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="6" t="str">
         <v>力度</v>
       </c>
       <c r="E8" s="1"/>
@@ -2464,16 +2464,16 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="6" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="6" t="str">
         <v>力度</v>
       </c>
       <c r="E10" s="1"/>
@@ -2506,19 +2506,19 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="6" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="6" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="6" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="6" t="str">
         <v>力度</v>
       </c>
       <c r="F12" s="1"/>
@@ -2818,7 +2818,7 @@
       <c r="C4" s="1" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -345,10 +345,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -361,10 +361,10 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -384,10 +384,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +732,10 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="2">
       <c r="A2" s="9" t="str">
@@ -750,8 +750,8 @@
       <c r="D2" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="str">
@@ -763,11 +763,11 @@
       <c r="C3" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="10"/>
@@ -783,40 +783,40 @@
       <c r="E4" s="9" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="10"/>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="15" t="str">
         <v>Battle</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="14" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
       <c r="D5" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10"/>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>大世界探索语音</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -834,7 +834,7 @@
       <c r="C7" s="10" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
@@ -874,10 +874,10 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
@@ -888,29 +888,29 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="3">
       <c r="A3" s="10" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="B3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="9" t="str">
@@ -919,31 +919,31 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="5">
       <c r="A5" s="10" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="6" t="str">
+      <c r="B5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>奖励系统</v>
       </c>
     </row>
@@ -951,24 +951,24 @@
       <c r="A7" s="10" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="6" t="str">
+      <c r="B7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>坐骑/载具</v>
       </c>
     </row>
@@ -979,16 +979,16 @@
       <c r="B9" s="10" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="6" t="str">
+      <c r="C9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1022,30 +1022,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="6" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1079,30 +1079,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="6" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1130,30 +1130,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>颜色</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>含义</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>py中的变量值名</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>规则</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>FFD9F3FD</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>若填充色为浅天蓝色，需要创建Audio下的Unit和Actor-Mixer</v>
       </c>
       <c r="C2" t="str">
         <v>first_column_data[1]</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>浅天蓝色sheet为正则表达式（包括GenTable也在正则中调）
 进正则默认为False，匹配成功才返回True</v>
       </c>
@@ -1162,10 +1162,10 @@
       <c r="A3" s="3" t="str">
         <v>FF8F959E</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>first_column_data[2]</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="A4" s="4" t="str">
         <v>FFD9F5D6</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>若填充色为浅绿色，创建Audio下的Actor-Mixer</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>first_column_data[3]</v>
       </c>
     </row>
@@ -1200,53 +1200,53 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="67" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>材质类型</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>肉身</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>金属</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>水</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>木头</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>土地</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>通用</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>石板</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B3" s="7" t="str">
+      <c r="A3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B3" s="6" t="str">
         <v>Flesh</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <v>Metal</v>
       </c>
       <c r="D3" s="5" t="str">
@@ -1255,10 +1255,10 @@
       <c r="E3" s="5" t="str">
         <v>Wood</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <v>Dirt</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="6" t="str">
         <v>Gen</v>
       </c>
       <c r="H3" s="5" t="str">
@@ -1269,10 +1269,10 @@
       <c r="A4" s="5" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="A6" s="5" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C6" s="1" t="str">
+      <c r="B6" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C6" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       <c r="A8" s="5" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="B8" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <v>Start</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="21">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <v>Pre</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <v>（技能）后面</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="27">
-      <c r="A27" s="7" t="str">
+      <c r="A27" s="6" t="str">
         <v>D</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="7" t="str">
+      <c r="A29" s="6" t="str">
         <v>L</v>
       </c>
     </row>
@@ -1443,17 +1443,17 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="6" t="str">
         <v>R</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="7" t="str">
+      <c r="A32" s="6" t="str">
         <v>（技能）特殊状态</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="7" t="str">
+      <c r="A33" s="6" t="str">
         <v>Sp</v>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="6" t="str">
         <v>2nd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="36">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="6" t="str">
         <v>（技能）第三阶段</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="39">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="6" t="str">
         <v>4th</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="41">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="6" t="str">
         <v>5th</v>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       <c r="A44" s="5" t="str">
         <v>远（表距离）</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="str">
+      <c r="A45" s="6" t="str">
         <v>Far</v>
       </c>
       <c r="B45" s="5" t="str">
@@ -1527,7 +1527,7 @@
       <c r="A46" s="5" t="str">
         <v>中（表距离）</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1543,10 +1543,10 @@
       <c r="A48" s="5" t="str">
         <v>近（表距离）</v>
       </c>
-      <c r="B48" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C48" s="1" t="str">
+      <c r="B48" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C48" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1565,12 +1565,12 @@
       <c r="A50" s="5" t="str">
         <v>非常近（表距离）</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="str">
+      <c r="A51" s="6" t="str">
         <v>VeryCls</v>
       </c>
       <c r="B51" s="5" t="str">
@@ -1601,7 +1601,7 @@
       <c r="A56" s="5" t="str">
         <v>地面</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B56" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="str">
+      <c r="A59" s="6" t="str">
         <v>Fall</v>
       </c>
     </row>
@@ -1627,10 +1627,10 @@
       <c r="A60" s="5" t="str">
         <v>死亡</v>
       </c>
-      <c r="B60" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C60" s="1" t="str">
+      <c r="B60" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C60" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1649,13 +1649,13 @@
       <c r="A62" s="5" t="str">
         <v>判定失败</v>
       </c>
-      <c r="B62" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D62" s="1" t="str">
+      <c r="B62" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D62" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1677,15 +1677,15 @@
       <c r="A64" s="5" t="str">
         <v>判定成功</v>
       </c>
-      <c r="B64" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C64" s="1" t="str">
+      <c r="B64" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C64" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="str">
+      <c r="A65" s="6" t="str">
         <v>Sucs</v>
       </c>
       <c r="B65" t="str">
@@ -1696,10 +1696,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="str">
+      <c r="A66" s="6" t="str">
         <v>默认</v>
       </c>
-      <c r="B66" s="1" t="str">
+      <c r="B66" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="A68" s="5" t="str">
         <v>互动</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1741,15 +1741,15 @@
       <c r="A72" s="5" t="str">
         <v>通用</v>
       </c>
-      <c r="B72" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C72" s="1" t="str">
+      <c r="B72" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C72" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="str">
+      <c r="A73" s="6" t="str">
         <v>Gen</v>
       </c>
       <c r="B73" t="str">
@@ -1760,60 +1760,60 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="str">
+      <c r="A74" s="2" t="str">
         <v>爆炸</v>
       </c>
-      <c r="B74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="E74" s="1" t="str">
+      <c r="B74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="E74" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="str">
+      <c r="A75" s="2" t="str">
         <v>Explo</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B75" s="2" t="str">
         <v>Explode</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C75" s="2" t="str">
         <v>Blast</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D75" s="2" t="str">
         <v>Bomb</v>
       </c>
-      <c r="E75" s="1" t="str">
+      <c r="E75" s="2" t="str">
         <v>Explosion</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="str">
+      <c r="A76" s="2" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="6" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="6" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="str">
+      <c r="A77" s="2" t="str">
         <v>LP</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B77" s="2" t="str">
         <v>Lp</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="2" t="str">
         <v>loop</v>
       </c>
     </row>
@@ -1853,30 +1853,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>环境区域编号</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -1887,16 +1887,16 @@
       <c r="B3" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="C3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1904,35 +1904,35 @@
       <c r="A4" s="9" t="str">
         <v>通用环境声</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -1941,16 +1941,16 @@
       <c r="B5" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1958,35 +1958,35 @@
       <c r="A6" s="9" t="str">
         <v>全局环境声</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="str">
@@ -1995,16 +1995,16 @@
       <c r="B7" s="10" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2038,30 +2038,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="1" t="str">
+      <c r="A2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2101,75 +2101,75 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色技能</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>模块类型或名称</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>Skill</v>
       </c>
       <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>((\bExpose\b)|(^Atk\\d+$)|(\bAtk\b)|(\bHook\b)|(\bSkyAtk\b)|(\bBattle\b)|(\bDodge\b)|(\bCounter\b)|(^Execu\\d+$)|(\bExecu\b)|(\bFocus\b)|(^Focus\\d+$)|(\bGen\b)|(\bHit\b)|(\bDeath\b)|(\bStrafe\b)|(\bUlt\b))</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>角色衣服摩擦</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>摩擦类型</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>Foley</v>
       </c>
       <c r="B5" s="10" t="str">
@@ -2178,38 +2178,38 @@
       <c r="C5" s="10" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="D5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>角色运动</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>鞋型</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>动作类型</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>Mov</v>
       </c>
       <c r="B7" s="10" t="str">
@@ -2221,50 +2221,50 @@
       <c r="D7" s="10" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="E7" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>其他</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>行为</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>Other</v>
       </c>
       <c r="B9" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="C9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2302,24 +2302,24 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>打击</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>力度</v>
       </c>
     </row>
@@ -2330,40 +2330,40 @@
       <c r="B3" s="10" t="str">
         <v>Steel</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="C3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>刺击</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>力度</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -2372,40 +2372,40 @@
       <c r="B5" s="10" t="str">
         <v>Steel</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>冲击</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>力度</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="str">
@@ -2414,40 +2414,40 @@
       <c r="B7" s="10" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="7" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="7" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="str">
@@ -2456,40 +2456,40 @@
       <c r="B9" s="10" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="1" t="str">
+      <c r="C9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="7" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="7" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="str">
@@ -2498,42 +2498,42 @@
       <c r="B11" s="10" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D11" s="1" t="str">
+      <c r="C11" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="7" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="7" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="7" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="E12" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="str">
@@ -2545,10 +2545,10 @@
       <c r="C13" s="10" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="D13" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2557,21 +2557,21 @@
       <c r="B14" s="10" t="str">
         <v>Heal</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E14" s="1" t="str">
+      <c r="C14" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>玩家受击</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>受击材质</v>
       </c>
     </row>
@@ -2620,30 +2620,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>小怪</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>小怪模块</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>小怪编号</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2651,19 +2651,19 @@
       <c r="A3" s="10" t="str">
         <v>Mob</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
       <c r="C3" s="10" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2675,33 +2675,33 @@
       <c r="C4" s="10" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="D4" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>Boss怪</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Boss模块</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Boss编号</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2709,19 +2709,19 @@
       <c r="A6" s="10" t="str">
         <v>Boss</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
       <c r="C6" s="10" t="str">
         <v>B\\d{2,4}</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="D6" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2761,30 +2761,30 @@
       <c r="D1" s="9" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色展示模块</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>皮肤类型（Def为默认）</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>动作</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2795,30 +2795,30 @@
       <c r="B3" s="10" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>Def</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>Enter</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>^Pose\\d+$</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>用户界面</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>通用UI</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="str">
@@ -2827,7 +2827,7 @@
       <c r="B5" s="10" t="str">
         <v>Gen</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2836,42 +2836,42 @@
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="str">
         <v>Activity</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>世界交互UI</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="str">
         <v>Interact</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="10">
       <c r="A10" s="10"/>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>菜单</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="str">
         <v>Menu</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -345,10 +345,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -363,16 +363,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0">
@@ -382,13 +382,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,126 +720,126 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="10" t="str">
         <v>游戏语音</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="10" t="str">
         <v>角色展示界面语音</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Game</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="15" t="str">
         <v>Show</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="str">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="str">
         <v>战斗语音</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="10" t="str">
         <v>战斗语音类型</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15" t="str">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13" t="str">
         <v>Battle</v>
       </c>
       <c r="C5" s="14" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="str">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="str">
         <v>大世界探索语音</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="10" t="str">
         <v>角色编号</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="10" t="str">
         <v>数字编号</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13" t="str">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15" t="str">
         <v>Explore</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -862,133 +862,133 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="10" t="str">
         <v>探索通用交互物</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="B3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="10" t="str">
         <v>特殊交互物</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="B5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>奖励系统</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="7" t="str">
+      <c r="B7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>坐骑/载具</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <v>Vehicle</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="C9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1010,42 +1010,42 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1067,42 +1067,42 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1130,30 +1130,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>颜色</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>含义</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>py中的变量值名</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>规则</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>FFD9F3FD</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>若填充色为浅天蓝色，需要创建Audio下的Unit和Actor-Mixer</v>
       </c>
       <c r="C2" t="str">
         <v>first_column_data[1]</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>浅天蓝色sheet为正则表达式（包括GenTable也在正则中调）
 进正则默认为False，匹配成功才返回True</v>
       </c>
@@ -1162,10 +1162,10 @@
       <c r="A3" s="3" t="str">
         <v>FF8F959E</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>first_column_data[2]</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="A4" s="4" t="str">
         <v>FFD9F5D6</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>若填充色为浅绿色，创建Audio下的Actor-Mixer</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>first_column_data[3]</v>
       </c>
     </row>
@@ -1200,47 +1200,47 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="67" r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>材质类型</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>肉身</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>金属</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>水</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>木头</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>土地</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>通用</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>石板</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>.*</v>
       </c>
       <c r="B3" s="6" t="str">
@@ -1269,10 +1269,10 @@
       <c r="A4" s="5" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="A6" s="5" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       <c r="A8" s="5" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D8" s="2" t="str">
+      <c r="B8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       <c r="A44" s="5" t="str">
         <v>远（表距离）</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       <c r="A46" s="5" t="str">
         <v>中（表距离）</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1543,10 +1543,10 @@
       <c r="A48" s="5" t="str">
         <v>近（表距离）</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C48" s="2" t="str">
+      <c r="B48" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C48" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="A50" s="5" t="str">
         <v>非常近（表距离）</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       <c r="A56" s="5" t="str">
         <v>地面</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1627,10 +1627,10 @@
       <c r="A60" s="5" t="str">
         <v>死亡</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C60" s="2" t="str">
+      <c r="B60" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C60" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1649,13 +1649,13 @@
       <c r="A62" s="5" t="str">
         <v>判定失败</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D62" s="2" t="str">
+      <c r="B62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D62" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       <c r="A63" s="5" t="str">
         <v>Fail</v>
       </c>
-      <c r="B63" s="8" t="b">
+      <c r="B63" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="str">
@@ -1677,10 +1677,10 @@
       <c r="A64" s="5" t="str">
         <v>判定成功</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C64" s="2" t="str">
+      <c r="B64" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C64" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       <c r="A66" s="6" t="str">
         <v>默认</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="A68" s="5" t="str">
         <v>互动</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
       <c r="A72" s="5" t="str">
         <v>通用</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C72" s="2" t="str">
+      <c r="B72" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C72" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1760,60 +1760,60 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="str">
+      <c r="A74" s="1" t="str">
         <v>爆炸</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="E74" s="2" t="str">
+      <c r="B74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="E74" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="1" t="str">
         <v>Explo</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="1" t="str">
         <v>Explode</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="1" t="str">
         <v>Blast</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="1" t="str">
         <v>Bomb</v>
       </c>
-      <c r="E75" s="2" t="str">
+      <c r="E75" s="1" t="str">
         <v>Explosion</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="str">
+      <c r="A76" s="1" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="1" t="str">
         <v>LP</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="1" t="str">
         <v>Lp</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="1" t="str">
         <v>loop</v>
       </c>
     </row>
@@ -1841,170 +1841,170 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>环境区域编号</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>A\\d{2,4}</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="10" t="str">
         <v>通用环境声</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="10" t="str">
         <v>全局环境声</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Global</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2026,42 +2026,42 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="A2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2089,182 +2089,182 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色技能</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>模块类型或名称</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>Skill</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>((\bExpose\b)|(^Atk\\d+$)|(\bAtk\b)|(\bHook\b)|(\bSkyAtk\b)|(\bBattle\b)|(\bDodge\b)|(\bCounter\b)|(^Execu\\d+$)|(\bExecu\b)|(\bFocus\b)|(^Focus\\d+$)|(\bGen\b)|(\bHit\b)|(\bDeath\b)|(\bStrafe\b)|(\bUlt\b))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>角色衣服摩擦</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>摩擦类型</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>Foley</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="9" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="D5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>角色运动</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>鞋型</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>动作类型</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>Mov</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <v>((\bHHeels\b)|(\bLeather\b)|(\bBoots\b))</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="E7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>其他</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>行为</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>Other</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2290,296 +2290,296 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>打击</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>力度</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Cut</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>刺击</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>Stab</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冲击</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <v>Punch</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="8" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <v>Firearm</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="8" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="8" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="9" t="str">
         <v>Block</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="9" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D11" s="2" t="str">
+      <c r="C11" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="8" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="8" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="8" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="str">
+      <c r="A13" s="9" t="str">
         <v>Element</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="9" t="str">
         <v>((\bFire\b)|(\bIce\b)|(\bAcid\b))</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="9" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E13" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="str">
         <v>Heal</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E14" s="2" t="str">
+      <c r="C14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E14" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>玩家受击</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>受击材质</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="9" t="str">
         <v>1P</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="9" t="str">
         <v>((\bCloth\b)|(\bArmour\b)|(\bLeather\b))</v>
       </c>
     </row>
@@ -2608,120 +2608,120 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>小怪</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>小怪模块</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>小怪编号</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Mob</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="9" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11" t="str">
         <v>Mov</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="9" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="D4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>Boss怪</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Boss模块</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Boss编号</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="9" t="str">
         <v>Boss</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="9" t="str">
         <v>B\\d{2,4}</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="D6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2749,129 +2749,129 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="10" t="str">
         <v>Ⅱ级名称</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="10" t="str">
         <v>Ⅲ级名称</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="10" t="str">
         <v>Ⅳ级名称</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色展示模块</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>皮肤类型（Def为默认）</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>动作</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <v>Show</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Def</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>Enter</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>^Pose\\d+$</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>用户界面</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>通用UI</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <v>UI</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="str">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="str">
         <v>Activity</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2" t="str">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="str">
         <v>世界交互UI</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="str">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="str">
         <v>Interact</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="str">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="str">
         <v>菜单</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="str">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="str">
         <v>Menu</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -345,16 +345,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -363,31 +363,31 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -732,10 +732,10 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="2">
       <c r="A2" s="10" t="str">
@@ -750,8 +750,8 @@
       <c r="D2" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="str">
@@ -763,11 +763,11 @@
       <c r="C3" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="9"/>
@@ -783,21 +783,21 @@
       <c r="E4" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="9"/>
@@ -810,13 +810,13 @@
       <c r="D5" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9"/>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>大世界探索语音</v>
       </c>
       <c r="C6" s="10" t="str">
@@ -834,7 +834,7 @@
       <c r="C7" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
@@ -874,10 +874,10 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
@@ -888,29 +888,29 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="3">
       <c r="A3" s="9" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="B3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="10" t="str">
@@ -919,31 +919,31 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="5">
       <c r="A5" s="9" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="B5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>奖励系统</v>
       </c>
     </row>
@@ -951,24 +951,24 @@
       <c r="A7" s="9" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="8" t="str">
+      <c r="B7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>坐骑/载具</v>
       </c>
     </row>
@@ -979,16 +979,16 @@
       <c r="B9" s="9" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="8" t="str">
+      <c r="C9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1022,30 +1022,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="8" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1079,30 +1079,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="8" t="str">
+      <c r="A2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="7" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1130,30 +1130,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>颜色</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>含义</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>py中的变量值名</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>规则</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>FFD9F3FD</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>若填充色为浅天蓝色，需要创建Audio下的Unit和Actor-Mixer</v>
       </c>
       <c r="C2" t="str">
         <v>first_column_data[1]</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>浅天蓝色sheet为正则表达式（包括GenTable也在正则中调）
 进正则默认为False，匹配成功才返回True</v>
       </c>
@@ -1162,10 +1162,10 @@
       <c r="A3" s="3" t="str">
         <v>FF8F959E</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>first_column_data[2]</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="A4" s="4" t="str">
         <v>FFD9F5D6</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>若填充色为浅绿色，创建Audio下的Actor-Mixer</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>first_column_data[3]</v>
       </c>
     </row>
@@ -1200,47 +1200,47 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="67" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>材质类型</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>肉身</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>金属</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>水</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>木头</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>土地</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>通用</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>石板</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>.*</v>
       </c>
       <c r="B3" s="6" t="str">
@@ -1269,10 +1269,10 @@
       <c r="A4" s="5" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="A6" s="5" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C6" s="1" t="str">
+      <c r="B6" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C6" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       <c r="A8" s="5" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="B8" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       <c r="A44" s="5" t="str">
         <v>远（表距离）</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       <c r="A46" s="5" t="str">
         <v>中（表距离）</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1543,10 +1543,10 @@
       <c r="A48" s="5" t="str">
         <v>近（表距离）</v>
       </c>
-      <c r="B48" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C48" s="1" t="str">
+      <c r="B48" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C48" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="A50" s="5" t="str">
         <v>非常近（表距离）</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       <c r="A56" s="5" t="str">
         <v>地面</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B56" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1627,10 +1627,10 @@
       <c r="A60" s="5" t="str">
         <v>死亡</v>
       </c>
-      <c r="B60" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C60" s="1" t="str">
+      <c r="B60" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C60" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1649,13 +1649,13 @@
       <c r="A62" s="5" t="str">
         <v>判定失败</v>
       </c>
-      <c r="B62" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D62" s="1" t="str">
+      <c r="B62" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D62" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       <c r="A63" s="5" t="str">
         <v>Fail</v>
       </c>
-      <c r="B63" s="7" t="b">
+      <c r="B63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="str">
@@ -1677,10 +1677,10 @@
       <c r="A64" s="5" t="str">
         <v>判定成功</v>
       </c>
-      <c r="B64" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C64" s="1" t="str">
+      <c r="B64" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C64" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       <c r="A66" s="6" t="str">
         <v>默认</v>
       </c>
-      <c r="B66" s="1" t="str">
+      <c r="B66" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="A68" s="5" t="str">
         <v>互动</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
       <c r="A72" s="5" t="str">
         <v>通用</v>
       </c>
-      <c r="B72" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C72" s="1" t="str">
+      <c r="B72" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C72" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
@@ -1760,60 +1760,60 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="str">
+      <c r="A74" s="2" t="str">
         <v>爆炸</v>
       </c>
-      <c r="B74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="E74" s="1" t="str">
+      <c r="B74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="E74" s="2" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="str">
+      <c r="A75" s="2" t="str">
         <v>Explo</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B75" s="2" t="str">
         <v>Explode</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C75" s="2" t="str">
         <v>Blast</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D75" s="2" t="str">
         <v>Bomb</v>
       </c>
-      <c r="E75" s="1" t="str">
+      <c r="E75" s="2" t="str">
         <v>Explosion</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="str">
+      <c r="A76" s="2" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="8" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="8" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="B76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="7" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="str">
+      <c r="A77" s="2" t="str">
         <v>LP</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B77" s="2" t="str">
         <v>Lp</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="2" t="str">
         <v>loop</v>
       </c>
     </row>
@@ -1853,30 +1853,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>环境区域编号</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -1887,16 +1887,16 @@
       <c r="B3" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="C3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1904,35 +1904,35 @@
       <c r="A4" s="10" t="str">
         <v>通用环境声</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -1941,16 +1941,16 @@
       <c r="B5" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="C5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1958,35 +1958,35 @@
       <c r="A6" s="10" t="str">
         <v>全局环境声</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="str">
@@ -1995,16 +1995,16 @@
       <c r="B7" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2038,30 +2038,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="1" t="str">
+      <c r="A2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2101,75 +2101,75 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色技能</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>模块类型或名称</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>Skill</v>
       </c>
       <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>((\bExpose\b)|(^Atk\\d+$)|(\bAtk\b)|(\bHook\b)|(\bSkyAtk\b)|(\bBattle\b)|(\bDodge\b)|(\bCounter\b)|(^Execu\\d+$)|(\bExecu\b)|(\bFocus\b)|(^Focus\\d+$)|(\bGen\b)|(\bHit\b)|(\bDeath\b)|(\bStrafe\b)|(\bUlt\b))</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>角色衣服摩擦</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>摩擦类型</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>Foley</v>
       </c>
       <c r="B5" s="9" t="str">
@@ -2178,38 +2178,38 @@
       <c r="C5" s="9" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="D5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>角色运动</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>鞋型</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>动作类型</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>Mov</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -2221,50 +2221,50 @@
       <c r="D7" s="9" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="E7" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>其他</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>行为</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>Other</v>
       </c>
       <c r="B9" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="C9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2302,24 +2302,24 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>打击</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>力度</v>
       </c>
     </row>
@@ -2330,40 +2330,40 @@
       <c r="B3" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="C3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>刺击</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>力度</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -2372,40 +2372,40 @@
       <c r="B5" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>冲击</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>材质</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>力度</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="str">
@@ -2414,40 +2414,40 @@
       <c r="B7" s="9" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="7" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="7" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="str">
@@ -2456,40 +2456,40 @@
       <c r="B9" s="9" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="1" t="str">
+      <c r="C9" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="7" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="7" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="str">
@@ -2498,42 +2498,42 @@
       <c r="B11" s="9" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D11" s="1" t="str">
+      <c r="C11" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="7" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="7" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="7" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <v>力度</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="str">
@@ -2545,10 +2545,10 @@
       <c r="C13" s="9" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="D13" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2557,21 +2557,21 @@
       <c r="B14" s="9" t="str">
         <v>Heal</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E14" s="1" t="str">
+      <c r="C14" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>玩家受击</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>受击材质</v>
       </c>
     </row>
@@ -2620,30 +2620,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>小怪</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>小怪模块</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>小怪编号</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2651,19 +2651,19 @@
       <c r="A3" s="9" t="str">
         <v>Mob</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
       <c r="C3" s="9" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2675,33 +2675,33 @@
       <c r="C4" s="9" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="D4" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>Boss怪</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>Boss模块</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Boss编号</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2709,19 +2709,19 @@
       <c r="A6" s="9" t="str">
         <v>Boss</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
       <c r="C6" s="9" t="str">
         <v>B\\d{2,4}</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="D6" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2761,30 +2761,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>角色展示模块</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>皮肤类型（Def为默认）</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>动作</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2795,30 +2795,30 @@
       <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>Def</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>Enter</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>^Pose\\d+$</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>用户界面</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>通用UI</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -2827,7 +2827,7 @@
       <c r="B5" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2836,42 +2836,42 @@
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="str">
         <v>Activity</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>世界交互UI</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="str">
         <v>Interact</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="10">
       <c r="A10" s="9"/>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>菜单</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="11">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="str">
         <v>Menu</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/命名规范检查/命名规范检查表.xlsx
+++ b/files/命名规范检查/命名规范检查表.xlsx
@@ -345,10 +345,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -358,16 +358,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -382,13 +382,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="8" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +732,10 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="2">
       <c r="A2" s="10" t="str">
@@ -750,24 +750,24 @@
       <c r="D2" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="str">
         <v>Game</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="13" t="str">
         <v>Show</v>
       </c>
       <c r="C3" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>^\d*$</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="9"/>
@@ -783,40 +783,40 @@
       <c r="E4" s="10" t="str">
         <v>数字编号</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="9"/>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="14" t="str">
         <v>Battle</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="15" t="str">
         <v>（(\bShout\b)|(\bDia\b)）</v>
       </c>
       <c r="D5" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9"/>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>大世界探索语音</v>
       </c>
       <c r="C6" s="10" t="str">
@@ -828,13 +828,13 @@
     </row>
     <row r="7">
       <c r="A7" s="9"/>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="13" t="str">
         <v>Explore</v>
       </c>
       <c r="C7" s="9" t="str">
         <v>((C\\d{2,4})|(B\\d{2,4}))</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
@@ -874,10 +874,10 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
@@ -888,29 +888,29 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="3">
       <c r="A3" s="9" t="str">
         <v>Explore</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="B3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="10" t="str">
@@ -919,31 +919,31 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="5">
       <c r="A5" s="9" t="str">
         <v>Func</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="B5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>奖励系统</v>
       </c>
     </row>
@@ -951,24 +951,24 @@
       <c r="A7" s="9" t="str">
         <v>Reward</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="7" t="str">
+      <c r="B7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>坐骑/载具</v>
       </c>
     </row>
@@ -979,16 +979,16 @@
       <c r="B9" s="9" t="str">
         <v>Horse</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="C9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F9" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1022,30 +1022,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1079,30 +1079,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="7" t="str">
+      <c r="A2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="8" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1130,30 +1130,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>颜色</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>含义</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>py中的变量值名</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>规则</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>FFD9F3FD</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>若填充色为浅天蓝色，需要创建Audio下的Unit和Actor-Mixer</v>
       </c>
       <c r="C2" t="str">
         <v>first_column_data[1]</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>浅天蓝色sheet为正则表达式（包括GenTable也在正则中调）
 进正则默认为False，匹配成功才返回True</v>
       </c>
@@ -1162,10 +1162,10 @@
       <c r="A3" s="3" t="str">
         <v>FF8F959E</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>first_column_data[2]</v>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
       <c r="A4" s="4" t="str">
         <v>FFD9F5D6</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>若填充色为浅绿色，创建Audio下的Actor-Mixer</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>first_column_data[3]</v>
       </c>
     </row>
@@ -1200,84 +1200,84 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="67" r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>材质类型</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>肉身</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>金属</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>水</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>木头</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>土地</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>通用</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>石板</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B3" s="6" t="str">
+      <c r="A3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B3" s="5" t="str">
         <v>Flesh</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="5" t="str">
         <v>Metal</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="6" t="str">
         <v>Water</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="6" t="str">
         <v>Wood</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="5" t="str">
         <v>Dirt</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="5" t="str">
         <v>Gen</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="6" t="str">
         <v>Rock</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="6" t="str">
         <v>轻（表重量）/小（表体积）</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C4" s="2" t="str">
+      <c r="B4" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <v>Lit</v>
       </c>
       <c r="B5" t="str">
@@ -1288,18 +1288,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="6" t="str">
         <v>中（表重量）/中（表体积）</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="6" t="str">
         <v>Mid</v>
       </c>
       <c r="B7" t="str">
@@ -1310,21 +1310,21 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="6" t="str">
         <v>重（表重量）/大（表体积）</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D8" s="2" t="str">
+      <c r="B8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="6" t="str">
         <v>Hvy</v>
       </c>
       <c r="B9" t="str">
@@ -1338,220 +1338,220 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="6" t="str">
         <v>（技能）特殊暴击/命中效果</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="6" t="str">
         <v>Cri</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="6" t="str">
         <v>（技能）进入某状态(武器、变身相关)</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="13">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="6" t="str">
         <v>Enter</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="14">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="6" t="str">
         <v>（技能）退出某状态(武器、变身相关）</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="15">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="6" t="str">
         <v>Exit</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="16">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="6" t="str">
         <v>（技能）开始</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="5" t="str">
         <v>Start</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="6" t="str">
         <v>（技能）结束</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="6" t="str">
         <v>End</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="6" t="str">
         <v>（技能）前摇</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="21">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="5" t="str">
         <v>Pre</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="22">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="6" t="str">
         <v>（技能）正面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="23">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="6" t="str">
         <v>F</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="5" t="str">
         <v>（技能）后面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="25">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="6" t="str">
         <v>B</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="6" t="str">
         <v>（技能）下面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="27">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="5" t="str">
         <v>D</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="28">
-      <c r="A28" s="5" t="str">
+      <c r="A28" s="6" t="str">
         <v>（技能）左面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="5" t="str">
         <v>L</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="30">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="6" t="str">
         <v>（技能）右面</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="5" t="str">
         <v>R</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="5" t="str">
         <v>（技能）特殊状态</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="5" t="str">
         <v>Sp</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="34">
-      <c r="A34" s="5" t="str">
+      <c r="A34" s="6" t="str">
         <v>（技能）第二阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="5" t="str">
         <v>2nd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="36">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="5" t="str">
         <v>（技能）第三阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="37">
-      <c r="A37" s="5" t="str">
+      <c r="A37" s="6" t="str">
         <v>3rd</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="38">
-      <c r="A38" s="5" t="str">
+      <c r="A38" s="6" t="str">
         <v>（技能）第四阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="39">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="5" t="str">
         <v>4th</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="40">
-      <c r="A40" s="5" t="str">
+      <c r="A40" s="6" t="str">
         <v>（技能）第五阶段</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="41">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="5" t="str">
         <v>5th</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="6" t="str">
         <v>非常远（表距离）</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="str">
+      <c r="A43" s="6" t="str">
         <v>VeryFar</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="str">
+      <c r="A44" s="6" t="str">
         <v>远（表距离）</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="5" t="str">
         <v>Far</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="6" t="str">
         <v>Distant</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="str">
+      <c r="A46" s="6" t="str">
         <v>中（表距离）</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="6" t="str">
         <v>Med</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="6" t="str">
         <v>Medium</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="str">
+      <c r="A48" s="6" t="str">
         <v>近（表距离）</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C48" s="2" t="str">
+      <c r="B48" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C48" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="str">
+      <c r="A49" s="6" t="str">
         <v>Cls</v>
       </c>
       <c r="B49" t="str">
@@ -1562,80 +1562,80 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="str">
+      <c r="A50" s="6" t="str">
         <v>非常近（表距离）</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="5" t="str">
         <v>VeryCls</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B51" s="6" t="str">
         <v>VeryClose</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="str">
+      <c r="A52" s="6" t="str">
         <v>白天</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="str">
+      <c r="A53" s="6" t="str">
         <v>Day</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="str">
+      <c r="A54" s="6" t="str">
         <v>黑夜</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="str">
+      <c r="A55" s="6" t="str">
         <v>Night</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="str">
+      <c r="A56" s="6" t="str">
         <v>地面</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="str">
+      <c r="A57" s="6" t="str">
         <v>Grd</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B57" s="6" t="str">
         <v>Ground</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="str">
+      <c r="A58" s="6" t="str">
         <v>下落</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="5" t="str">
         <v>Fall</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="str">
+      <c r="A60" s="6" t="str">
         <v>死亡</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C60" s="2" t="str">
+      <c r="B60" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C60" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="str">
+      <c r="A61" s="6" t="str">
         <v>Death</v>
       </c>
       <c r="B61" t="str">
@@ -1646,24 +1646,24 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="str">
+      <c r="A62" s="6" t="str">
         <v>判定失败</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D62" s="2" t="str">
+      <c r="B62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D62" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="str">
+      <c r="A63" s="6" t="str">
         <v>Fail</v>
       </c>
-      <c r="B63" s="8" t="b">
+      <c r="B63" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="str">
@@ -1674,18 +1674,18 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="str">
+      <c r="A64" s="6" t="str">
         <v>判定成功</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C64" s="2" t="str">
+      <c r="B64" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C64" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="str">
+      <c r="A65" s="5" t="str">
         <v>Sucs</v>
       </c>
       <c r="B65" t="str">
@@ -1696,60 +1696,60 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="str">
+      <c r="A66" s="5" t="str">
         <v>默认</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="str">
+      <c r="A67" s="6" t="str">
         <v>Def</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B67" s="6" t="str">
         <v>Default</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="str">
+      <c r="A68" s="6" t="str">
         <v>互动</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="str">
+      <c r="A69" s="6" t="str">
         <v>Intv</v>
       </c>
-      <c r="B69" s="5" t="str">
+      <c r="B69" s="6" t="str">
         <v>Interactive</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="str">
+      <c r="A70" s="6" t="str">
         <v>多次（例如射击）</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="str">
+      <c r="A71" s="6" t="str">
         <v>Multi</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="str">
+      <c r="A72" s="6" t="str">
         <v>通用</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C72" s="2" t="str">
+      <c r="B72" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C72" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="str">
+      <c r="A73" s="5" t="str">
         <v>Gen</v>
       </c>
       <c r="B73" t="str">
@@ -1760,60 +1760,60 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="str">
+      <c r="A74" s="1" t="str">
         <v>爆炸</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="E74" s="2" t="str">
+      <c r="B74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="E74" s="1" t="str">
         <v>禁用词汇</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="str">
+      <c r="A75" s="1" t="str">
         <v>Explo</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="1" t="str">
         <v>Explode</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="1" t="str">
         <v>Blast</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="1" t="str">
         <v>Bomb</v>
       </c>
-      <c r="E75" s="2" t="str">
+      <c r="E75" s="1" t="str">
         <v>Explosion</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="str">
+      <c r="A76" s="1" t="str">
         <v>循环</v>
       </c>
-      <c r="B76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="C76" s="7" t="str">
-        <v>禁用词汇</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <v>禁用词汇</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="str">
+      <c r="A77" s="1" t="str">
         <v>LP</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="1" t="str">
         <v>Lp</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="1" t="str">
         <v>loop</v>
       </c>
     </row>
@@ -1853,30 +1853,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>环境区域编号</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -1887,16 +1887,16 @@
       <c r="B3" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1904,35 +1904,35 @@
       <c r="A4" s="10" t="str">
         <v>通用环境声</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -1941,16 +1941,16 @@
       <c r="B5" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b))</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -1958,35 +1958,35 @@
       <c r="A6" s="10" t="str">
         <v>全局环境声</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>声源类型</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>子区域描述</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>区域描述</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="str">
@@ -1995,16 +1995,16 @@
       <c r="B7" s="9" t="str">
         <v>((\bArea\b)|(\bPoint\b)|(\bWeather\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2038,30 +2038,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>.*</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="A2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>.*</v>
+      </c>
+      <c r="F2" s="1" t="str">
         <v>.*</v>
       </c>
     </row>
@@ -2101,75 +2101,75 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色技能</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>模块类型或名称</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>Skill</v>
       </c>
       <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>((\bExpose\b)|(^Atk\\d+$)|(\bAtk\b)|(\bHook\b)|(\bSkyAtk\b)|(\bBattle\b)|(\bDodge\b)|(\bCounter\b)|(^Execu\\d+$)|(\bExecu\b)|(\bFocus\b)|(^Focus\\d+$)|(\bGen\b)|(\bHit\b)|(\bDeath\b)|(\bStrafe\b)|(\bUlt\b))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>角色衣服摩擦</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>摩擦类型</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>Foley</v>
       </c>
       <c r="B5" s="9" t="str">
@@ -2178,38 +2178,38 @@
       <c r="C5" s="9" t="str">
         <v>((\bCombat\b)|(\b3C\b))</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="D5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>角色运动</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>鞋型</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>动作类型</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>Mov</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -2221,50 +2221,50 @@
       <c r="D7" s="9" t="str">
         <v>((\bStep\b)|(\bFDown\b)|(\bTDown\b))</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="E7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>其他</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>角色通用</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>行为</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>Other</v>
       </c>
       <c r="B9" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2302,24 +2302,24 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>打击</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>力度</v>
       </c>
     </row>
@@ -2330,40 +2330,40 @@
       <c r="B3" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D3" s="2" t="str">
+      <c r="C3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>刺击</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -2372,40 +2372,40 @@
       <c r="B5" s="9" t="str">
         <v>Steel</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D5" s="2" t="str">
+      <c r="C5" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>冲击</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>武器判定</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>材质</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>力度</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="str">
@@ -2414,40 +2414,40 @@
       <c r="B7" s="9" t="str">
         <v>((\bNormal\b)|(\bSteel\b))</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D7" s="2" t="str">
+      <c r="C7" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="8" t="str">
         <v>火器</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <v>火器类型</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="str">
@@ -2456,40 +2456,40 @@
       <c r="B9" s="9" t="str">
         <v>((\bGun\b)|(\bLaunch\b))</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D9" s="2" t="str">
+      <c r="C9" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="8" t="str">
         <v>防守</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="8" t="str">
         <v>防守类型</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="str">
@@ -2498,42 +2498,42 @@
       <c r="B11" s="9" t="str">
         <v>((\bShield\b)|(\bSteel\b))</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D11" s="2" t="str">
+      <c r="C11" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="8" t="str">
         <v>元素攻击</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="8" t="str">
         <v>元素类型</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="8" t="str">
         <v>元素行为</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="8" t="str">
         <v>材质</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="8" t="str">
         <v>力度</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="str">
@@ -2545,10 +2545,10 @@
       <c r="C13" s="9" t="str">
         <v>((\bWeap\b)|(\bSpell\b))</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E13" s="2" t="str">
+      <c r="D13" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E13" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2557,21 +2557,21 @@
       <c r="B14" s="9" t="str">
         <v>Heal</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E14" s="2" t="str">
+      <c r="C14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E14" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>玩家受击</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>受击材质</v>
       </c>
     </row>
@@ -2620,30 +2620,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>小怪</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>小怪模块</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>小怪编号</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2651,19 +2651,19 @@
       <c r="A3" s="9" t="str">
         <v>Mob</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bShout\b))</v>
       </c>
       <c r="C3" s="9" t="str">
         <v>((MN\\d{2,4})|(ME\\d{2,4}))</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="D3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F3" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2675,33 +2675,33 @@
       <c r="C4" s="9" t="str">
         <v>((\bMN\b)|(\bME\b))</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="D4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>Boss怪</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>Boss模块</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Boss编号</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>模块描述</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2709,19 +2709,19 @@
       <c r="A6" s="9" t="str">
         <v>Boss</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>((\bSkill\b)|(\bFoley\b)|(\bMov\b))</v>
       </c>
       <c r="C6" s="9" t="str">
         <v>B\\d{2,4}</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>GenTable</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="D6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>GenTable</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2761,30 +2761,30 @@
       <c r="D1" s="10" t="str">
         <v>Ⅴ级名称</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Ⅵ级名称</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Ⅶ级名称</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>角色展示模块</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>角色编号</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>皮肤类型（Def为默认）</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>动作</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>描述/状态</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>描述/状态</v>
       </c>
     </row>
@@ -2795,30 +2795,30 @@
       <c r="B3" s="9" t="str">
         <v>C\\d{2,4}</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Def</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>Enter</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>^Pose\\d+$</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>^\d*$</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>用户界面</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>通用UI</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>触发行为</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -2827,7 +2827,7 @@
       <c r="B5" s="9" t="str">
         <v>Gen</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>GenTable</v>
       </c>
     </row>
@@ -2836,42 +2836,42 @@
       <c r="B6" s="12" t="str">
         <v>活动专用UI</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="str">
         <v>Activity</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>世界交互UI</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="str">
         <v>Interact</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="10">
       <c r="A10" s="9"/>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>菜单</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="11">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="str">
         <v>Menu</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
